--- a/tests/Templates/GroupTagTests_MergeLabels2.xlsx
+++ b/tests/Templates/GroupTagTests_MergeLabels2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\asr\ClosedXML.Report\tests\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="615" windowWidth="15480" windowHeight="11460"/>
   </bookViews>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Order No</t>
   </si>
@@ -80,11 +85,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -242,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -279,9 +284,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -376,6 +378,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -769,7 +779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -777,33 +787,32 @@
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="40.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" customWidth="1"/>
     <col min="10" max="11" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="51" customHeight="1">
+    <row r="1" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="28"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="27"/>
     </row>
-    <row r="2" spans="1:11" ht="12.75">
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -814,11 +823,11 @@
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="12">
+    <row r="3" spans="1:11" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="4"/>
@@ -827,16 +836,16 @@
       <c r="J3" s="4"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="22.5">
+    <row r="4" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>0</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>2</v>
@@ -854,16 +863,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>11</v>
@@ -881,20 +890,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
       <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="19"/>
+      <c r="C6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
